--- a/va_facility_data_2025-02-20/Tinker VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Tinker%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Tinker VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Tinker%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R6446ba6cb3f340beb81567c7e2f293f4"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3644b3e884d84761bdcadcc778bb9c0e"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R2ea53fbecf584ad393ce907b9b1fde28"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rf37a4da05a16418baabc0b77dce7699c"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra31e63a1b3e5494aaf04a70dad0c9a94"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R6e44e5bc4f1943caab8defb0d9645a8a"/>
   </x:sheets>
 </x:workbook>
 </file>
